--- a/StudentLists_data.xlsx
+++ b/StudentLists_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>ali</t>
   </si>
@@ -53,7 +53,7 @@
     <t>2210</t>
   </si>
   <si>
-    <t>ali2</t>
+    <t>ali3</t>
   </si>
   <si>
     <t>4</t>
@@ -68,7 +68,58 @@
     <t>22101</t>
   </si>
   <si>
-    <t>7#Kd4&amp;FpGqXy!3vPmZ@LwTnU2$r%hY8jN*5sE</t>
+    <t>anne</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>01254</t>
+  </si>
+  <si>
+    <t>n@gmail.com</t>
+  </si>
+  <si>
+    <t>22100.0</t>
+  </si>
+  <si>
+    <t>6546.0</t>
+  </si>
+  <si>
+    <t>dodo</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>54545</t>
+  </si>
+  <si>
+    <t>d@gmail.com</t>
+  </si>
+  <si>
+    <t>22101.0</t>
+  </si>
+  <si>
+    <t>3555.0</t>
+  </si>
+  <si>
+    <t>lola</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>97898</t>
+  </si>
+  <si>
+    <t>l@gmail.com</t>
+  </si>
+  <si>
+    <t>22102.0</t>
+  </si>
+  <si>
+    <t>5466.0</t>
   </si>
 </sst>
 </file>
@@ -113,7 +164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -196,7 +247,67 @@
         <v>17</v>
       </c>
       <c r="F4" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
         <v>18</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/StudentLists_data.xlsx
+++ b/StudentLists_data.xlsx
@@ -12,66 +12,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
-  <si>
-    <t>ali</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+  <si>
+    <t>Injection</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>30401222800713</t>
+  </si>
+  <si>
+    <t>itz@gmail.com</t>
+  </si>
+  <si>
+    <t>193913</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Ali Ibrahim</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>30503170101592</t>
-  </si>
-  <si>
-    <t>ialy24405@gmail.com</t>
-  </si>
-  <si>
-    <t>221018172</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>it@gmail.com</t>
-  </si>
-  <si>
-    <t>221008808</t>
-  </si>
-  <si>
-    <t>ial</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>ali3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>ialr</t>
-  </si>
-  <si>
-    <t>22101</t>
+    <t>22100</t>
   </si>
   <si>
     <t>anne</t>
   </si>
   <si>
-    <t>1.0</t>
+    <t>17</t>
   </si>
   <si>
     <t>01254</t>
@@ -89,7 +65,7 @@
     <t>dodo</t>
   </si>
   <si>
-    <t>2.0</t>
+    <t>18</t>
   </si>
   <si>
     <t>54545</t>
@@ -107,7 +83,7 @@
     <t>lola</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>19</t>
   </si>
   <si>
     <t>97898</t>
@@ -120,6 +96,24 @@
   </si>
   <si>
     <t>5466.0</t>
+  </si>
+  <si>
+    <t>3li</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1235</t>
+  </si>
+  <si>
+    <t>fhghf@g.com</t>
+  </si>
+  <si>
+    <t>22103.0</t>
+  </si>
+  <si>
+    <t>1234.0</t>
   </si>
 </sst>
 </file>
@@ -164,7 +158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -201,10 +195,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>9</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>10</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>5</v>
@@ -212,102 +206,82 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s" s="0">
         <v>33</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/StudentLists_data.xlsx
+++ b/StudentLists_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Injection</t>
   </si>
@@ -44,7 +44,7 @@
     <t>22100</t>
   </si>
   <si>
-    <t>anne</t>
+    <t>nosha</t>
   </si>
   <si>
     <t>17</t>
@@ -56,7 +56,7 @@
     <t>n@gmail.com</t>
   </si>
   <si>
-    <t>22100.0</t>
+    <t>22102</t>
   </si>
   <si>
     <t>6546.0</t>
@@ -74,30 +74,12 @@
     <t>d@gmail.com</t>
   </si>
   <si>
-    <t>22101.0</t>
+    <t>22101</t>
   </si>
   <si>
     <t>3555.0</t>
   </si>
   <si>
-    <t>lola</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>97898</t>
-  </si>
-  <si>
-    <t>l@gmail.com</t>
-  </si>
-  <si>
-    <t>22102.0</t>
-  </si>
-  <si>
-    <t>5466.0</t>
-  </si>
-  <si>
     <t>3li</t>
   </si>
   <si>
@@ -110,7 +92,7 @@
     <t>fhghf@g.com</t>
   </si>
   <si>
-    <t>22103.0</t>
+    <t>22103</t>
   </si>
   <si>
     <t>1234.0</t>
@@ -158,7 +140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -264,26 +246,6 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
